--- a/Team-Data/2008-09/2-24-2008-09.xlsx
+++ b/Team-Data/2008-09/2-24-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -801,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.789</v>
+        <v>0.793</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,28 +975,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -962,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
@@ -974,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,16 +1053,16 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J4" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M4" t="n">
         <v>15.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
@@ -1087,7 +1154,7 @@
         <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,13 +1205,13 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
@@ -1153,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
@@ -1165,10 +1232,10 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -1227,52 +1294,52 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
         <v>5.6</v>
@@ -1281,22 +1348,22 @@
         <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1326,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,13 +1411,13 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,10 +1426,10 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -1397,46 +1464,46 @@
         <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
         <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,40 +1512,40 @@
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z6" t="n">
         <v>20.3</v>
       </c>
-      <c r="V6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>20.1</v>
-      </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1496,25 +1563,25 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,28 +1590,28 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
         <v>19.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P7" t="n">
         <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11</v>
@@ -1624,19 +1691,19 @@
         <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
@@ -1648,34 +1715,34 @@
         <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
@@ -1705,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1851,16 +1918,16 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
@@ -1884,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>0.491</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,7 +2025,7 @@
         <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.453</v>
@@ -1967,16 +2034,16 @@
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
         <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
         <v>0.744</v>
@@ -1985,16 +2052,16 @@
         <v>10.9</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T9" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W9" t="n">
         <v>6.3</v>
@@ -2003,22 +2070,22 @@
         <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2033,7 +2100,7 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2042,13 +2109,13 @@
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2066,10 +2133,10 @@
         <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,16 +2145,16 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>14</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.632</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,7 +2389,7 @@
         <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.446</v>
@@ -2331,25 +2398,25 @@
         <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
         <v>19.6</v>
       </c>
       <c r="P11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
         <v>43.1</v>
@@ -2361,28 +2428,28 @@
         <v>14.3</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>3.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
         <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2406,7 +2473,7 @@
         <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2418,10 +2485,10 @@
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>17</v>
@@ -2430,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2585,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2785,13 +2852,13 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2803,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -2865,70 +2932,70 @@
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>0.268</v>
+        <v>0.273</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J15" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
         <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
         <v>10.7</v>
       </c>
       <c r="S15" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T15" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U15" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y15" t="n">
         <v>5.3</v>
@@ -3101,16 +3168,16 @@
         <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.2</v>
+        <v>93.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,10 +3198,10 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
@@ -3146,16 +3213,16 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
         <v>26</v>
@@ -3164,16 +3231,16 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.536</v>
+        <v>0.527</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,37 +3299,37 @@
         <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P16" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T16" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U16" t="n">
         <v>19.8</v>
@@ -3274,25 +3341,25 @@
         <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
         <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3331,13 +3398,13 @@
         <v>26</v>
       </c>
       <c r="AQ16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR16" t="n">
         <v>24</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
         <v>25</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
@@ -3352,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
@@ -3361,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.475</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.45</v>
@@ -3423,34 +3490,34 @@
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P17" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.2</v>
@@ -3462,19 +3529,19 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3504,10 +3571,10 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -3522,7 +3589,7 @@
         <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
@@ -3537,10 +3604,10 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N18" t="n">
         <v>0.345</v>
@@ -3614,22 +3681,22 @@
         <v>19.1</v>
       </c>
       <c r="P18" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R18" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
@@ -3641,28 +3708,28 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z18" t="n">
         <v>21.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -3701,13 +3768,13 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3725,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3877,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -4059,7 +4126,7 @@
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
@@ -4071,7 +4138,7 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4214,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4247,28 +4314,28 @@
         <v>14</v>
       </c>
       <c r="AS21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT21" t="n">
         <v>6</v>
       </c>
-      <c r="AT21" t="n">
-        <v>7</v>
-      </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" t="n">
-        <v>0.228</v>
+        <v>0.232</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4327,7 +4394,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L22" t="n">
         <v>4.2</v>
@@ -4336,16 +4403,16 @@
         <v>11.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P22" t="n">
         <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R22" t="n">
         <v>12.3</v>
@@ -4366,10 +4433,10 @@
         <v>6.9</v>
       </c>
       <c r="X22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
@@ -4378,28 +4445,28 @@
         <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4420,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,7 +4514,7 @@
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
         <v>41</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.732</v>
+        <v>0.745</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.459</v>
@@ -4518,13 +4585,13 @@
         <v>26.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.396</v>
+        <v>0.397</v>
       </c>
       <c r="O23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P23" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.72</v>
@@ -4533,10 +4600,10 @@
         <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
         <v>19.3</v>
@@ -4557,16 +4624,16 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
         <v>102.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,13 +4648,13 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4602,7 +4669,7 @@
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4626,13 +4693,13 @@
         <v>18</v>
       </c>
       <c r="AX23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>9</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>27</v>
@@ -4784,7 +4851,7 @@
         <v>16</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4799,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4814,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,19 +4937,19 @@
         <v>39.6</v>
       </c>
       <c r="J25" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.501</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
@@ -4891,55 +4958,55 @@
         <v>27.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S25" t="n">
         <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>22.5</v>
       </c>
       <c r="V25" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
         <v>6.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -4948,31 +5015,31 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>9</v>
@@ -4987,10 +5054,10 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -4999,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -5049,73 +5116,73 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
         <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S26" t="n">
         <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
@@ -5124,16 +5191,16 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5148,10 +5215,10 @@
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,31 +5227,31 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5327,10 +5394,10 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5428,34 +5495,34 @@
         <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
         <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
         <v>21.9</v>
       </c>
       <c r="V28" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
@@ -5464,19 +5531,19 @@
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA28" t="n">
         <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,10 +5564,10 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
         <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.39</v>
+        <v>0.379</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>6.1</v>
@@ -5616,13 +5683,13 @@
         <v>18.6</v>
       </c>
       <c r="P29" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.828</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
@@ -5631,10 +5698,10 @@
         <v>39.2</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
         <v>6.2</v>
@@ -5652,13 +5719,13 @@
         <v>20.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5667,19 +5734,19 @@
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5691,7 +5758,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5709,16 +5776,16 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>9</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -5840,28 +5907,28 @@
         <v>3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6085,7 +6152,7 @@
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-24-2008-09</t>
+          <t>2009-02-24</t>
         </is>
       </c>
     </row>
